--- a/Document/5.SpringBacklog/Sprint1_Backlog.xlsx
+++ b/Document/5.SpringBacklog/Sprint1_Backlog.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
   <si>
     <t>No</t>
   </si>
@@ -197,6 +197,9 @@
   <si>
     <t>Estimate effort (in hours)</t>
   </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
 </sst>
 </file>
 
@@ -256,7 +259,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,6 +341,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
@@ -438,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -541,6 +550,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -789,85 +801,85 @@
                   <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.5</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>9.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>32.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.5</c:v>
-                </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.5</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -2220,10 +2232,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML45"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="S48" sqref="S48"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6291,12 +6303,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomLeft" activeCell="M84" sqref="M83:M84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6309,7 +6321,7 @@
     <col min="6" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="58.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="57.75" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -7489,7 +7501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -8236,7 +8248,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="3">
         <v>3</v>
@@ -8263,13 +8275,13 @@
         <v>1</v>
       </c>
       <c r="Y21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB21" s="3">
         <v>0</v>
@@ -8340,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>3</v>
@@ -8363,17 +8375,17 @@
       <c r="W22" s="3">
         <v>3</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X22" s="42">
         <v>0</v>
       </c>
       <c r="Y22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z22" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA22" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
@@ -8444,7 +8456,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q23" s="3">
         <v>1.5</v>
@@ -8468,16 +8480,16 @@
         <v>1.5</v>
       </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y23" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z23" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AA23" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AB23" s="3">
         <v>0</v>
@@ -9890,25 +9902,25 @@
         <v>0</v>
       </c>
       <c r="V38" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W38" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X38" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y38" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z38" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA38" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB38" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC38" s="30">
         <v>1</v>
@@ -9994,40 +10006,40 @@
         <v>0</v>
       </c>
       <c r="V39" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W39" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X39" s="30">
         <v>3</v>
       </c>
       <c r="Y39" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z39" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA39" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB39" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC39" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD39" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE39" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF39" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG39" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH39" s="30">
         <v>0</v>
@@ -10151,91 +10163,91 @@
         <v>1</v>
       </c>
       <c r="E41" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="30">
         <v>1</v>
       </c>
       <c r="G41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG41" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH41" s="30">
         <v>0</v>
@@ -10384,115 +10396,120 @@
       </c>
       <c r="G44" s="3">
         <f t="shared" ref="G44:AH44" si="0">SUM(G2:G41)</f>
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="J44" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K44" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L44" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M44" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P44" s="3">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>18</v>
       </c>
       <c r="Q44" s="3">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>43.5</v>
       </c>
       <c r="R44" s="3">
         <f t="shared" si="0"/>
-        <v>32.5</v>
+        <v>33.5</v>
       </c>
       <c r="S44" s="3">
         <f t="shared" si="0"/>
-        <v>33.5</v>
+        <v>34.5</v>
       </c>
       <c r="T44" s="3">
         <f t="shared" si="0"/>
-        <v>33.5</v>
+        <v>34.5</v>
       </c>
       <c r="U44" s="3">
         <f t="shared" si="0"/>
-        <v>32.5</v>
+        <v>33.5</v>
       </c>
       <c r="V44" s="3">
         <f t="shared" si="0"/>
-        <v>33.5</v>
+        <v>39.5</v>
       </c>
       <c r="W44" s="3">
         <f t="shared" si="0"/>
-        <v>33.5</v>
+        <v>39.5</v>
       </c>
       <c r="X44" s="3">
         <f t="shared" si="0"/>
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="Y44" s="3">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="Z44" s="3">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="AA44" s="3">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="AB44" s="3">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC44" s="3">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD44" s="3">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE44" s="3">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF44" s="3">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG44" s="3">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH44" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Document/5.SpringBacklog/Sprint1_Backlog.xlsx
+++ b/Document/5.SpringBacklog/Sprint1_Backlog.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="71">
   <si>
     <t>No</t>
   </si>
@@ -200,6 +200,45 @@
   <si>
     <t xml:space="preserve">  </t>
   </si>
+  <si>
+    <t>Design user interface of view accommodation on map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design user interface of View Accommodation detail </t>
+  </si>
+  <si>
+    <t>Test Design user interface of view accommodation on map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Design user interface of View detail Accommodation </t>
+  </si>
+  <si>
+    <t>Code front-end for view accommodation on map</t>
+  </si>
+  <si>
+    <t>Code back-end for view accommodation on map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code front-end View detail accommodation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Back-end for View list accommodation </t>
+  </si>
+  <si>
+    <t>Code front-end Search</t>
+  </si>
+  <si>
+    <t>Code back-end Search</t>
+  </si>
+  <si>
+    <t>Design Test Case for accommodation on map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Test Case for View detail Accommodation </t>
+  </si>
+  <si>
+    <t>Design Test Case for Search</t>
+  </si>
 </sst>
 </file>
 
@@ -259,7 +298,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,12 +350,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -442,12 +475,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -462,13 +506,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -486,7 +524,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -499,7 +537,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -514,7 +552,7 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -537,10 +575,10 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -550,8 +588,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -798,37 +848,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>16.5</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.5</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.5</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.5</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18</c:v>
+                  <c:v>38.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43.5</c:v>
@@ -837,13 +887,13 @@
                   <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>34.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>34.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>39.5</c:v>
@@ -1023,37 +1073,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>16.5</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.5</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>38</c:v>
@@ -2233,9 +2283,9 @@
   <dimension ref="A1:AML45"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B14:B15"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2269,134 +2319,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45 1026:1026" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="26" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="25">
+      <c r="E1" s="23">
         <v>43349</v>
       </c>
-      <c r="F1" s="25">
+      <c r="F1" s="23">
         <v>43350</v>
       </c>
-      <c r="G1" s="25">
+      <c r="G1" s="23">
         <v>43351</v>
       </c>
-      <c r="H1" s="25">
+      <c r="H1" s="23">
         <v>43352</v>
       </c>
-      <c r="I1" s="25">
+      <c r="I1" s="23">
         <v>43353</v>
       </c>
-      <c r="J1" s="25">
+      <c r="J1" s="23">
         <v>43354</v>
       </c>
-      <c r="K1" s="25">
+      <c r="K1" s="23">
         <v>43355</v>
       </c>
-      <c r="L1" s="25">
+      <c r="L1" s="23">
         <v>43356</v>
       </c>
-      <c r="M1" s="25">
+      <c r="M1" s="23">
         <v>43357</v>
       </c>
-      <c r="N1" s="25">
+      <c r="N1" s="23">
         <v>43358</v>
       </c>
-      <c r="O1" s="25">
+      <c r="O1" s="23">
         <v>43359</v>
       </c>
-      <c r="P1" s="25">
+      <c r="P1" s="23">
         <v>43360</v>
       </c>
-      <c r="Q1" s="25">
+      <c r="Q1" s="23">
         <v>43361</v>
       </c>
-      <c r="R1" s="25">
+      <c r="R1" s="23">
         <v>43362</v>
       </c>
-      <c r="S1" s="25">
+      <c r="S1" s="23">
         <v>43363</v>
       </c>
-      <c r="T1" s="25">
+      <c r="T1" s="23">
         <v>43364</v>
       </c>
-      <c r="U1" s="25">
+      <c r="U1" s="23">
         <v>43365</v>
       </c>
-      <c r="V1" s="25">
+      <c r="V1" s="23">
         <v>43366</v>
       </c>
-      <c r="W1" s="25">
+      <c r="W1" s="23">
         <v>43367</v>
       </c>
-      <c r="X1" s="25">
+      <c r="X1" s="23">
         <v>43368</v>
       </c>
-      <c r="Y1" s="25">
+      <c r="Y1" s="23">
         <v>43369</v>
       </c>
-      <c r="Z1" s="25">
+      <c r="Z1" s="23">
         <v>43370</v>
       </c>
-      <c r="AA1" s="25">
+      <c r="AA1" s="23">
         <v>43371</v>
       </c>
-      <c r="AB1" s="25">
+      <c r="AB1" s="23">
         <v>43372</v>
       </c>
-      <c r="AC1" s="25">
+      <c r="AC1" s="23">
         <v>43373</v>
       </c>
-      <c r="AD1" s="25">
+      <c r="AD1" s="23">
         <v>43374</v>
       </c>
-      <c r="AE1" s="25">
+      <c r="AE1" s="23">
         <v>43375</v>
       </c>
-      <c r="AF1" s="25">
+      <c r="AF1" s="23">
         <v>43376</v>
       </c>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
       <c r="AML1"/>
     </row>
     <row r="2" spans="1:45 1026:1026" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="12">
         <v>4</v>
       </c>
       <c r="E2" s="3">
         <v>4</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="19">
         <v>0</v>
       </c>
       <c r="G2" s="3">
@@ -2477,32 +2527,32 @@
       <c r="AF2" s="3">
         <v>0</v>
       </c>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
       <c r="AML2"/>
     </row>
     <row r="3" spans="1:45 1026:1026" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>0.5</v>
       </c>
       <c r="E3" s="3">
@@ -2589,32 +2639,32 @@
       <c r="AF3" s="3">
         <v>0.5</v>
       </c>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
       <c r="AML3"/>
     </row>
     <row r="4" spans="1:45 1026:1026" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>3</v>
       </c>
       <c r="E4" s="3">
@@ -2623,110 +2673,110 @@
       <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="21">
-        <v>0</v>
-      </c>
-      <c r="H4" s="21">
-        <v>0</v>
-      </c>
-      <c r="I4" s="21">
-        <v>0</v>
-      </c>
-      <c r="J4" s="21">
-        <v>0</v>
-      </c>
-      <c r="K4" s="21">
-        <v>0</v>
-      </c>
-      <c r="L4" s="21">
-        <v>0</v>
-      </c>
-      <c r="M4" s="21">
-        <v>0</v>
-      </c>
-      <c r="N4" s="21">
-        <v>0</v>
-      </c>
-      <c r="O4" s="21">
-        <v>0</v>
-      </c>
-      <c r="P4" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="21">
-        <v>0</v>
-      </c>
-      <c r="R4" s="21">
-        <v>0</v>
-      </c>
-      <c r="S4" s="21">
-        <v>0</v>
-      </c>
-      <c r="T4" s="21">
-        <v>0</v>
-      </c>
-      <c r="U4" s="21">
-        <v>0</v>
-      </c>
-      <c r="V4" s="21">
-        <v>0</v>
-      </c>
-      <c r="W4" s="21">
-        <v>0</v>
-      </c>
-      <c r="X4" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="12"/>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3</v>
+      </c>
+      <c r="L4" s="19">
+        <v>0</v>
+      </c>
+      <c r="M4" s="33">
+        <v>3</v>
+      </c>
+      <c r="N4" s="19">
+        <v>0</v>
+      </c>
+      <c r="O4" s="19">
+        <v>0</v>
+      </c>
+      <c r="P4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>0</v>
+      </c>
+      <c r="R4" s="19">
+        <v>0</v>
+      </c>
+      <c r="S4" s="19">
+        <v>0</v>
+      </c>
+      <c r="T4" s="19">
+        <v>0</v>
+      </c>
+      <c r="U4" s="19">
+        <v>0</v>
+      </c>
+      <c r="V4" s="19">
+        <v>0</v>
+      </c>
+      <c r="W4" s="19">
+        <v>0</v>
+      </c>
+      <c r="X4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
       <c r="AML4"/>
     </row>
     <row r="5" spans="1:45 1026:1026" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>2</v>
       </c>
       <c r="E5" s="3">
@@ -2738,17 +2788,17 @@
       <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="H5" s="21">
-        <v>0</v>
+      <c r="H5" s="3">
+        <v>2</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
@@ -2817,13 +2867,13 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>3</v>
       </c>
       <c r="E6" s="3">
@@ -2832,7 +2882,7 @@
       <c r="F6" s="3">
         <v>3</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="19">
         <v>3</v>
       </c>
       <c r="H6" s="3">
@@ -2916,13 +2966,13 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>3</v>
       </c>
       <c r="E7" s="3">
@@ -2931,7 +2981,7 @@
       <c r="F7" s="3">
         <v>3</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="19">
         <v>3</v>
       </c>
       <c r="H7" s="3">
@@ -2950,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -3009,67 +3059,67 @@
       <c r="AF7" s="3">
         <v>0</v>
       </c>
-      <c r="AG7" s="24"/>
+      <c r="AG7" s="22"/>
       <c r="AML7"/>
     </row>
     <row r="8" spans="1:45 1026:1026" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
       <c r="AML8"/>
     </row>
     <row r="9" spans="1:45 1026:1026" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>2</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
@@ -3152,26 +3202,26 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>0.5</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I10" s="3">
         <v>0.5</v>
@@ -3251,26 +3301,26 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="14">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="29">
+        <v>1</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1</v>
+      </c>
+      <c r="G11" s="29">
+        <v>1</v>
+      </c>
+      <c r="H11" s="29">
+        <v>1</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -3288,7 +3338,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="3">
         <v>0</v>
@@ -3350,13 +3400,13 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>3</v>
       </c>
       <c r="E12" s="3">
@@ -3449,26 +3499,26 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
@@ -3546,77 +3596,77 @@
     </row>
     <row r="14" spans="1:45 1026:1026" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
       <c r="AML14"/>
     </row>
     <row r="15" spans="1:45 1026:1026" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>2</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" s="3">
         <v>2</v>
@@ -3684,38 +3734,38 @@
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>1</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="3">
         <v>1</v>
@@ -3783,38 +3833,38 @@
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>1</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="3">
         <v>1</v>
@@ -3882,38 +3932,38 @@
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="14">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
+      <c r="D18" s="12">
+        <v>2</v>
+      </c>
+      <c r="E18" s="29">
+        <v>2</v>
+      </c>
+      <c r="F18" s="29">
+        <v>2</v>
+      </c>
+      <c r="G18" s="29">
+        <v>2</v>
+      </c>
+      <c r="H18" s="29">
+        <v>2</v>
+      </c>
+      <c r="I18" s="29">
+        <v>2</v>
+      </c>
+      <c r="J18" s="29">
+        <v>2</v>
+      </c>
+      <c r="K18" s="29">
+        <v>2</v>
+      </c>
+      <c r="L18" s="29">
+        <v>2</v>
       </c>
       <c r="M18" s="3">
         <v>2</v>
@@ -3972,7 +4022,7 @@
       <c r="AE18" s="3">
         <v>0</v>
       </c>
-      <c r="AF18" s="27">
+      <c r="AF18" s="25">
         <v>0</v>
       </c>
       <c r="AML18"/>
@@ -3981,38 +4031,38 @@
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>2</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19" s="3">
         <v>2</v>
@@ -4068,20 +4118,20 @@
       <c r="AD19" s="3">
         <v>0</v>
       </c>
-      <c r="AE19" s="22">
+      <c r="AE19" s="20">
         <v>0</v>
       </c>
       <c r="AF19" s="3">
         <v>0</v>
       </c>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="24"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="22"/>
       <c r="AML19"/>
     </row>
     <row r="20" spans="1:35 1026:1026" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="4"/>
@@ -4092,75 +4142,75 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="28"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="26"/>
       <c r="AML20"/>
     </row>
     <row r="21" spans="1:35 1026:1026" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P21" s="3">
         <v>3</v>
@@ -4219,13 +4269,13 @@
       <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="12">
         <v>4.5</v>
       </c>
       <c r="E22" s="3">
@@ -4241,25 +4291,25 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>3</v>
@@ -4318,13 +4368,13 @@
       <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <v>1.5</v>
       </c>
       <c r="E23" s="3">
@@ -4340,25 +4390,25 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P23" s="3">
         <v>1.5</v>
@@ -4417,13 +4467,13 @@
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="12">
         <v>4</v>
       </c>
       <c r="E24" s="3">
@@ -4439,25 +4489,25 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24" s="3">
         <v>2</v>
@@ -4516,13 +4566,13 @@
       <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <v>1.5</v>
       </c>
       <c r="E25" s="3">
@@ -4538,25 +4588,25 @@
         <v>0</v>
       </c>
       <c r="I25" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J25" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K25" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L25" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M25" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N25" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O25" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P25" s="3">
         <v>1.5</v>
@@ -4615,13 +4665,13 @@
       <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="12">
         <v>2</v>
       </c>
       <c r="E26" s="3">
@@ -4637,25 +4687,25 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P26" s="3">
         <v>2</v>
@@ -4714,13 +4764,13 @@
       <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="12">
         <v>3</v>
       </c>
       <c r="E27" s="3">
@@ -4736,25 +4786,25 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P27" s="3">
         <v>3</v>
@@ -4813,13 +4863,13 @@
       <c r="A28" s="2">
         <v>24</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="12">
         <v>4</v>
       </c>
       <c r="E28" s="3">
@@ -4835,25 +4885,25 @@
         <v>0</v>
       </c>
       <c r="I28" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N28" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O28" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P28" s="3">
         <v>3</v>
@@ -4912,13 +4962,13 @@
       <c r="A29" s="2">
         <v>25</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="12">
         <v>2</v>
       </c>
       <c r="E29" s="3">
@@ -4934,25 +4984,25 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P29" s="3">
         <v>2</v>
@@ -5011,13 +5061,13 @@
       <c r="A30" s="2">
         <v>26</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="12">
         <v>3</v>
       </c>
       <c r="E30" s="3">
@@ -5033,25 +5083,25 @@
         <v>0</v>
       </c>
       <c r="I30" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K30" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N30" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O30" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P30" s="3">
         <v>3</v>
@@ -5108,7 +5158,7 @@
     </row>
     <row r="31" spans="1:35 1026:1026" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="4"/>
@@ -5137,23 +5187,23 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="11"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
       <c r="AML31"/>
     </row>
     <row r="32" spans="1:35 1026:1026" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>27</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="13">
         <v>1</v>
       </c>
       <c r="E32" s="3">
@@ -5246,13 +5296,13 @@
       <c r="A33" s="2">
         <v>28</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="13">
         <v>1</v>
       </c>
       <c r="E33" s="3">
@@ -5345,13 +5395,13 @@
       <c r="A34" s="2">
         <v>29</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="13">
         <v>1</v>
       </c>
       <c r="E34" s="3">
@@ -5444,13 +5494,13 @@
       <c r="A35" s="2">
         <v>30</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="13">
         <v>1</v>
       </c>
       <c r="E35" s="3">
@@ -5543,13 +5593,13 @@
       <c r="A36" s="2">
         <v>31</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="13">
         <v>1</v>
       </c>
       <c r="E36" s="3">
@@ -5639,657 +5689,657 @@
       <c r="AML36"/>
     </row>
     <row r="37" spans="1:32 1026:1026" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="19" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="11"/>
-      <c r="AD37" s="11"/>
-      <c r="AE37" s="10"/>
-      <c r="AF37" s="10"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="9"/>
+      <c r="AD37" s="9"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
       <c r="AML37"/>
     </row>
     <row r="38" spans="1:32 1026:1026" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13">
+      <c r="A38" s="11">
         <v>32</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="14">
-        <v>2</v>
-      </c>
-      <c r="E38" s="30">
-        <v>0</v>
-      </c>
-      <c r="F38" s="30">
-        <v>0</v>
-      </c>
-      <c r="G38" s="30">
-        <v>0</v>
-      </c>
-      <c r="H38" s="30">
-        <v>0</v>
-      </c>
-      <c r="I38" s="30">
-        <v>0</v>
-      </c>
-      <c r="J38" s="30">
-        <v>0</v>
-      </c>
-      <c r="K38" s="30">
-        <v>0</v>
-      </c>
-      <c r="L38" s="30">
-        <v>0</v>
-      </c>
-      <c r="M38" s="30">
-        <v>0</v>
-      </c>
-      <c r="N38" s="30">
-        <v>0</v>
-      </c>
-      <c r="O38" s="30">
-        <v>0</v>
-      </c>
-      <c r="P38" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="30">
-        <v>0</v>
-      </c>
-      <c r="R38" s="30">
-        <v>0</v>
-      </c>
-      <c r="S38" s="30">
-        <v>0</v>
-      </c>
-      <c r="T38" s="30">
-        <v>0</v>
-      </c>
-      <c r="U38" s="30">
-        <v>1</v>
-      </c>
-      <c r="V38" s="30">
-        <v>1</v>
-      </c>
-      <c r="W38" s="30">
-        <v>1</v>
-      </c>
-      <c r="X38" s="30">
-        <v>1</v>
-      </c>
-      <c r="Y38" s="30">
-        <v>1</v>
-      </c>
-      <c r="Z38" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA38" s="30">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="30">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="30">
-        <v>1</v>
-      </c>
-      <c r="AD38" s="30">
-        <v>1</v>
-      </c>
-      <c r="AE38" s="30">
-        <v>1</v>
-      </c>
-      <c r="AF38" s="30">
+      <c r="D38" s="12">
+        <v>2</v>
+      </c>
+      <c r="E38" s="28">
+        <v>0</v>
+      </c>
+      <c r="F38" s="28">
+        <v>0</v>
+      </c>
+      <c r="G38" s="28">
+        <v>0</v>
+      </c>
+      <c r="H38" s="28">
+        <v>0</v>
+      </c>
+      <c r="I38" s="28">
+        <v>0</v>
+      </c>
+      <c r="J38" s="28">
+        <v>0</v>
+      </c>
+      <c r="K38" s="28">
+        <v>0</v>
+      </c>
+      <c r="L38" s="28">
+        <v>0</v>
+      </c>
+      <c r="M38" s="28">
+        <v>0</v>
+      </c>
+      <c r="N38" s="28">
+        <v>0</v>
+      </c>
+      <c r="O38" s="28">
+        <v>0</v>
+      </c>
+      <c r="P38" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="28">
+        <v>0</v>
+      </c>
+      <c r="R38" s="28">
+        <v>0</v>
+      </c>
+      <c r="S38" s="28">
+        <v>0</v>
+      </c>
+      <c r="T38" s="28">
+        <v>0</v>
+      </c>
+      <c r="U38" s="28">
+        <v>1</v>
+      </c>
+      <c r="V38" s="28">
+        <v>1</v>
+      </c>
+      <c r="W38" s="28">
+        <v>1</v>
+      </c>
+      <c r="X38" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="28">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="28">
         <v>1</v>
       </c>
       <c r="AML38"/>
     </row>
     <row r="39" spans="1:32 1026:1026" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
+      <c r="A39" s="11">
         <v>33</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="14">
-        <v>3</v>
-      </c>
-      <c r="E39" s="30">
-        <v>0</v>
-      </c>
-      <c r="F39" s="30">
-        <v>0</v>
-      </c>
-      <c r="G39" s="30">
-        <v>0</v>
-      </c>
-      <c r="H39" s="30">
-        <v>0</v>
-      </c>
-      <c r="I39" s="30">
-        <v>0</v>
-      </c>
-      <c r="J39" s="30">
-        <v>0</v>
-      </c>
-      <c r="K39" s="30">
-        <v>0</v>
-      </c>
-      <c r="L39" s="30">
-        <v>0</v>
-      </c>
-      <c r="M39" s="30">
-        <v>0</v>
-      </c>
-      <c r="N39" s="30">
-        <v>0</v>
-      </c>
-      <c r="O39" s="30">
-        <v>0</v>
-      </c>
-      <c r="P39" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="30">
-        <v>0</v>
-      </c>
-      <c r="R39" s="30">
-        <v>0</v>
-      </c>
-      <c r="S39" s="30">
-        <v>0</v>
-      </c>
-      <c r="T39" s="30">
-        <v>0</v>
-      </c>
-      <c r="U39" s="30">
-        <v>0</v>
-      </c>
-      <c r="V39" s="30">
-        <v>0</v>
-      </c>
-      <c r="W39" s="30">
-        <v>3</v>
-      </c>
-      <c r="X39" s="30">
-        <v>1</v>
-      </c>
-      <c r="Y39" s="30">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA39" s="30">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="30">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="30">
-        <v>1</v>
-      </c>
-      <c r="AD39" s="30">
-        <v>1</v>
-      </c>
-      <c r="AE39" s="30">
-        <v>1</v>
-      </c>
-      <c r="AF39" s="30">
+      <c r="D39" s="12">
+        <v>3</v>
+      </c>
+      <c r="E39" s="28">
+        <v>0</v>
+      </c>
+      <c r="F39" s="28">
+        <v>0</v>
+      </c>
+      <c r="G39" s="28">
+        <v>0</v>
+      </c>
+      <c r="H39" s="28">
+        <v>0</v>
+      </c>
+      <c r="I39" s="28">
+        <v>0</v>
+      </c>
+      <c r="J39" s="28">
+        <v>0</v>
+      </c>
+      <c r="K39" s="28">
+        <v>0</v>
+      </c>
+      <c r="L39" s="28">
+        <v>0</v>
+      </c>
+      <c r="M39" s="28">
+        <v>0</v>
+      </c>
+      <c r="N39" s="28">
+        <v>0</v>
+      </c>
+      <c r="O39" s="28">
+        <v>0</v>
+      </c>
+      <c r="P39" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="28">
+        <v>0</v>
+      </c>
+      <c r="R39" s="28">
+        <v>0</v>
+      </c>
+      <c r="S39" s="28">
+        <v>0</v>
+      </c>
+      <c r="T39" s="28">
+        <v>0</v>
+      </c>
+      <c r="U39" s="28">
+        <v>0</v>
+      </c>
+      <c r="V39" s="28">
+        <v>0</v>
+      </c>
+      <c r="W39" s="28">
+        <v>3</v>
+      </c>
+      <c r="X39" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="28">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="28">
         <v>1</v>
       </c>
       <c r="AML39"/>
     </row>
     <row r="40" spans="1:32 1026:1026" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13">
+      <c r="A40" s="11">
         <v>34</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="14">
-        <v>2</v>
-      </c>
-      <c r="E40" s="30">
-        <v>0</v>
-      </c>
-      <c r="F40" s="30">
-        <v>0</v>
-      </c>
-      <c r="G40" s="30">
-        <v>0</v>
-      </c>
-      <c r="H40" s="30">
-        <v>0</v>
-      </c>
-      <c r="I40" s="30">
-        <v>0</v>
-      </c>
-      <c r="J40" s="30">
-        <v>0</v>
-      </c>
-      <c r="K40" s="30">
-        <v>0</v>
-      </c>
-      <c r="L40" s="30">
-        <v>0</v>
-      </c>
-      <c r="M40" s="30">
-        <v>0</v>
-      </c>
-      <c r="N40" s="30">
-        <v>0</v>
-      </c>
-      <c r="O40" s="30">
-        <v>0</v>
-      </c>
-      <c r="P40" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="30">
-        <v>0</v>
-      </c>
-      <c r="R40" s="30">
-        <v>0</v>
-      </c>
-      <c r="S40" s="30">
-        <v>0</v>
-      </c>
-      <c r="T40" s="30">
-        <v>0</v>
-      </c>
-      <c r="U40" s="30">
-        <v>2</v>
-      </c>
-      <c r="V40" s="30">
-        <v>2</v>
-      </c>
-      <c r="W40" s="30">
-        <v>2</v>
-      </c>
-      <c r="X40" s="30">
-        <v>2</v>
-      </c>
-      <c r="Y40" s="30">
-        <v>2</v>
-      </c>
-      <c r="Z40" s="30">
-        <v>2</v>
-      </c>
-      <c r="AA40" s="30">
-        <v>2</v>
-      </c>
-      <c r="AB40" s="30">
-        <v>2</v>
-      </c>
-      <c r="AC40" s="30">
-        <v>2</v>
-      </c>
-      <c r="AD40" s="30">
-        <v>2</v>
-      </c>
-      <c r="AE40" s="30">
-        <v>2</v>
-      </c>
-      <c r="AF40" s="30">
+      <c r="D40" s="12">
+        <v>2</v>
+      </c>
+      <c r="E40" s="28">
+        <v>0</v>
+      </c>
+      <c r="F40" s="28">
+        <v>0</v>
+      </c>
+      <c r="G40" s="28">
+        <v>0</v>
+      </c>
+      <c r="H40" s="28">
+        <v>0</v>
+      </c>
+      <c r="I40" s="28">
+        <v>0</v>
+      </c>
+      <c r="J40" s="28">
+        <v>0</v>
+      </c>
+      <c r="K40" s="28">
+        <v>0</v>
+      </c>
+      <c r="L40" s="28">
+        <v>0</v>
+      </c>
+      <c r="M40" s="28">
+        <v>0</v>
+      </c>
+      <c r="N40" s="28">
+        <v>0</v>
+      </c>
+      <c r="O40" s="28">
+        <v>0</v>
+      </c>
+      <c r="P40" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="28">
+        <v>0</v>
+      </c>
+      <c r="R40" s="28">
+        <v>0</v>
+      </c>
+      <c r="S40" s="28">
+        <v>0</v>
+      </c>
+      <c r="T40" s="28">
+        <v>0</v>
+      </c>
+      <c r="U40" s="28">
+        <v>2</v>
+      </c>
+      <c r="V40" s="28">
+        <v>2</v>
+      </c>
+      <c r="W40" s="28">
+        <v>2</v>
+      </c>
+      <c r="X40" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y40" s="28">
+        <v>2</v>
+      </c>
+      <c r="Z40" s="28">
+        <v>2</v>
+      </c>
+      <c r="AA40" s="28">
+        <v>2</v>
+      </c>
+      <c r="AB40" s="28">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="28">
+        <v>2</v>
+      </c>
+      <c r="AD40" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE40" s="28">
+        <v>2</v>
+      </c>
+      <c r="AF40" s="28">
         <v>2</v>
       </c>
       <c r="AML40"/>
     </row>
     <row r="41" spans="1:32 1026:1026" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
+      <c r="A41" s="11">
         <v>35</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="14">
-        <v>1</v>
-      </c>
-      <c r="E41" s="30">
-        <v>1</v>
-      </c>
-      <c r="F41" s="30">
-        <v>1</v>
-      </c>
-      <c r="G41" s="30">
-        <v>1</v>
-      </c>
-      <c r="H41" s="30">
-        <v>1</v>
-      </c>
-      <c r="I41" s="30">
-        <v>1</v>
-      </c>
-      <c r="J41" s="30">
-        <v>1</v>
-      </c>
-      <c r="K41" s="30">
-        <v>1</v>
-      </c>
-      <c r="L41" s="30">
-        <v>1</v>
-      </c>
-      <c r="M41" s="30">
-        <v>1</v>
-      </c>
-      <c r="N41" s="30">
-        <v>1</v>
-      </c>
-      <c r="O41" s="30">
-        <v>1</v>
-      </c>
-      <c r="P41" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="30">
-        <v>1</v>
-      </c>
-      <c r="R41" s="30">
-        <v>1</v>
-      </c>
-      <c r="S41" s="30">
-        <v>1</v>
-      </c>
-      <c r="T41" s="30">
-        <v>1</v>
-      </c>
-      <c r="U41" s="30">
-        <v>1</v>
-      </c>
-      <c r="V41" s="30">
-        <v>1</v>
-      </c>
-      <c r="W41" s="30">
-        <v>1</v>
-      </c>
-      <c r="X41" s="30">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="30">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA41" s="30">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="30">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="30">
-        <v>1</v>
-      </c>
-      <c r="AD41" s="30">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="30">
-        <v>1</v>
-      </c>
-      <c r="AF41" s="30">
+      <c r="D41" s="12">
+        <v>1</v>
+      </c>
+      <c r="E41" s="28">
+        <v>1</v>
+      </c>
+      <c r="F41" s="28">
+        <v>1</v>
+      </c>
+      <c r="G41" s="28">
+        <v>1</v>
+      </c>
+      <c r="H41" s="28">
+        <v>1</v>
+      </c>
+      <c r="I41" s="28">
+        <v>1</v>
+      </c>
+      <c r="J41" s="28">
+        <v>1</v>
+      </c>
+      <c r="K41" s="28">
+        <v>1</v>
+      </c>
+      <c r="L41" s="28">
+        <v>1</v>
+      </c>
+      <c r="M41" s="28">
+        <v>1</v>
+      </c>
+      <c r="N41" s="28">
+        <v>1</v>
+      </c>
+      <c r="O41" s="28">
+        <v>1</v>
+      </c>
+      <c r="P41" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="28">
+        <v>1</v>
+      </c>
+      <c r="R41" s="28">
+        <v>1</v>
+      </c>
+      <c r="S41" s="28">
+        <v>1</v>
+      </c>
+      <c r="T41" s="28">
+        <v>1</v>
+      </c>
+      <c r="U41" s="28">
+        <v>1</v>
+      </c>
+      <c r="V41" s="28">
+        <v>1</v>
+      </c>
+      <c r="W41" s="28">
+        <v>1</v>
+      </c>
+      <c r="X41" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="28">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="28">
         <v>1</v>
       </c>
       <c r="AML41"/>
     </row>
     <row r="42" spans="1:32 1026:1026" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="10"/>
-      <c r="AF42" s="10"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
       <c r="AML42"/>
     </row>
     <row r="43" spans="1:32 1026:1026" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="29">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="27">
         <f>SUM(E2:E41)</f>
-        <v>16.5</v>
-      </c>
-      <c r="F43" s="29">
-        <f t="shared" ref="F43:AF43" si="0">SUM(F2:F41)</f>
-        <v>12.5</v>
-      </c>
-      <c r="G43" s="29">
+        <v>32</v>
+      </c>
+      <c r="F43" s="27">
+        <f>SUM(F2:F41)</f>
+        <v>28</v>
+      </c>
+      <c r="G43" s="27">
+        <f t="shared" ref="F43:AF43" si="0">SUM(G2:G41)</f>
+        <v>28</v>
+      </c>
+      <c r="H43" s="27">
         <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="H43" s="29">
+        <v>28</v>
+      </c>
+      <c r="I43" s="27">
         <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="I43" s="29">
+        <v>52</v>
+      </c>
+      <c r="J43" s="27">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="J43" s="29">
+        <v>52</v>
+      </c>
+      <c r="K43" s="27">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="K43" s="29">
+        <v>52</v>
+      </c>
+      <c r="L43" s="27">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="L43" s="29">
+        <v>41</v>
+      </c>
+      <c r="M43" s="27">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M43" s="29">
+        <v>47</v>
+      </c>
+      <c r="N43" s="27">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="N43" s="29">
+        <v>41</v>
+      </c>
+      <c r="O43" s="27">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="O43" s="29">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="P43" s="29">
+        <v>33.5</v>
+      </c>
+      <c r="P43" s="27">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="Q43" s="29">
+      <c r="Q43" s="27">
         <f t="shared" si="0"/>
         <v>30.5</v>
       </c>
-      <c r="R43" s="29">
+      <c r="R43" s="27">
         <f t="shared" si="0"/>
         <v>30.5</v>
       </c>
-      <c r="S43" s="29">
+      <c r="S43" s="27">
         <f t="shared" si="0"/>
         <v>30.5</v>
       </c>
-      <c r="T43" s="29">
+      <c r="T43" s="27">
         <f t="shared" si="0"/>
         <v>30.5</v>
       </c>
-      <c r="U43" s="29">
+      <c r="U43" s="27">
         <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
-      <c r="V43" s="29">
+      <c r="V43" s="27">
         <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
-      <c r="W43" s="29">
+      <c r="W43" s="27">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="X43" s="29">
+      <c r="X43" s="27">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="Y43" s="29">
+      <c r="Y43" s="27">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="Z43" s="29">
+      <c r="Z43" s="27">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="AA43" s="29">
+      <c r="AA43" s="27">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="AB43" s="29">
+      <c r="AB43" s="27">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="AC43" s="29">
+      <c r="AC43" s="27">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="AD43" s="29">
+      <c r="AD43" s="27">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="AE43" s="29">
+      <c r="AE43" s="27">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="AF43" s="29">
+      <c r="AF43" s="27">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="AML43"/>
     </row>
     <row r="44" spans="1:32 1026:1026" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="12"/>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="12"/>
-      <c r="AC44" s="12"/>
-      <c r="AD44" s="12"/>
-      <c r="AE44" s="12"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
     </row>
     <row r="45" spans="1:32 1026:1026" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
-      <c r="T45" s="12"/>
-      <c r="U45" s="12"/>
-      <c r="V45" s="12"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="12"/>
-      <c r="Z45" s="12"/>
-      <c r="AA45" s="12"/>
-      <c r="AB45" s="12"/>
-      <c r="AC45" s="12"/>
-      <c r="AD45" s="12"/>
-      <c r="AE45" s="12"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -6305,123 +6355,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="M84" sqref="M83:M84"/>
+      <selection pane="bottomLeft" activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5703125"/>
     <col min="2" max="2" width="65.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="57.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
+    <row r="1" spans="1:34" ht="59.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="25">
+      <c r="F1" s="23">
         <v>43349</v>
       </c>
-      <c r="G1" s="25">
+      <c r="G1" s="23">
         <v>43350</v>
       </c>
-      <c r="H1" s="25">
+      <c r="H1" s="23">
         <v>43351</v>
       </c>
-      <c r="I1" s="25">
+      <c r="I1" s="23">
         <v>43352</v>
       </c>
-      <c r="J1" s="25">
+      <c r="J1" s="23">
         <v>43353</v>
       </c>
-      <c r="K1" s="25">
+      <c r="K1" s="23">
         <v>43354</v>
       </c>
-      <c r="L1" s="25">
+      <c r="L1" s="23">
         <v>43355</v>
       </c>
-      <c r="M1" s="25">
+      <c r="M1" s="23">
         <v>43356</v>
       </c>
-      <c r="N1" s="25">
+      <c r="N1" s="23">
         <v>43357</v>
       </c>
-      <c r="O1" s="25">
+      <c r="O1" s="23">
         <v>43358</v>
       </c>
-      <c r="P1" s="25">
+      <c r="P1" s="23">
         <v>43359</v>
       </c>
-      <c r="Q1" s="25">
+      <c r="Q1" s="23">
         <v>43360</v>
       </c>
-      <c r="R1" s="25">
+      <c r="R1" s="23">
         <v>43361</v>
       </c>
-      <c r="S1" s="25">
+      <c r="S1" s="23">
         <v>43362</v>
       </c>
-      <c r="T1" s="25">
+      <c r="T1" s="23">
         <v>43363</v>
       </c>
-      <c r="U1" s="25">
+      <c r="U1" s="23">
         <v>43364</v>
       </c>
-      <c r="V1" s="25">
+      <c r="V1" s="23">
         <v>43365</v>
       </c>
-      <c r="W1" s="25">
+      <c r="W1" s="23">
         <v>43366</v>
       </c>
-      <c r="X1" s="25">
+      <c r="X1" s="23">
         <v>43367</v>
       </c>
-      <c r="Y1" s="25">
+      <c r="Y1" s="23">
         <v>43368</v>
       </c>
-      <c r="Z1" s="25">
+      <c r="Z1" s="23">
         <v>43369</v>
       </c>
-      <c r="AA1" s="25">
+      <c r="AA1" s="23">
         <v>43370</v>
       </c>
-      <c r="AB1" s="25">
+      <c r="AB1" s="23">
         <v>43371</v>
       </c>
-      <c r="AC1" s="25">
+      <c r="AC1" s="23">
         <v>43372</v>
       </c>
-      <c r="AD1" s="25">
+      <c r="AD1" s="23">
         <v>43373</v>
       </c>
-      <c r="AE1" s="25">
+      <c r="AE1" s="23">
         <v>43374</v>
       </c>
-      <c r="AF1" s="25">
+      <c r="AF1" s="23">
         <v>43375</v>
       </c>
-      <c r="AG1" s="25">
+      <c r="AG1" s="23">
         <v>43376</v>
       </c>
-      <c r="AH1" s="25">
+      <c r="AH1" s="23">
         <v>43377</v>
       </c>
     </row>
@@ -6429,22 +6479,22 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="29">
         <v>4</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="29">
         <v>4</v>
       </c>
       <c r="F2" s="3">
         <v>4</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="19">
         <v>0</v>
       </c>
       <c r="H2" s="3">
@@ -6533,16 +6583,16 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="29">
         <v>0.5</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="29">
         <v>0.5</v>
       </c>
       <c r="F3" s="3">
@@ -6637,16 +6687,16 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="31">
-        <v>3</v>
-      </c>
-      <c r="E4" s="31">
+      <c r="D4" s="29">
+        <v>3</v>
+      </c>
+      <c r="E4" s="29">
         <v>3</v>
       </c>
       <c r="F4" s="3">
@@ -6655,82 +6705,82 @@
       <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="21">
-        <v>0</v>
-      </c>
-      <c r="I4" s="21">
-        <v>0</v>
-      </c>
-      <c r="J4" s="21">
-        <v>0</v>
-      </c>
-      <c r="K4" s="21">
-        <v>0</v>
-      </c>
-      <c r="L4" s="21">
-        <v>0</v>
-      </c>
-      <c r="M4" s="21">
-        <v>0</v>
-      </c>
-      <c r="N4" s="35">
-        <v>3</v>
-      </c>
-      <c r="O4" s="21">
-        <v>0</v>
-      </c>
-      <c r="P4" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="21">
-        <v>0</v>
-      </c>
-      <c r="R4" s="21">
-        <v>0</v>
-      </c>
-      <c r="S4" s="21">
-        <v>0</v>
-      </c>
-      <c r="T4" s="21">
-        <v>0</v>
-      </c>
-      <c r="U4" s="21">
-        <v>0</v>
-      </c>
-      <c r="V4" s="21">
-        <v>0</v>
-      </c>
-      <c r="W4" s="21">
-        <v>0</v>
-      </c>
-      <c r="X4" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="21">
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3</v>
+      </c>
+      <c r="M4" s="19">
+        <v>0</v>
+      </c>
+      <c r="N4" s="33">
+        <v>3</v>
+      </c>
+      <c r="O4" s="19">
+        <v>0</v>
+      </c>
+      <c r="P4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>0</v>
+      </c>
+      <c r="R4" s="19">
+        <v>0</v>
+      </c>
+      <c r="S4" s="19">
+        <v>0</v>
+      </c>
+      <c r="T4" s="19">
+        <v>0</v>
+      </c>
+      <c r="U4" s="19">
+        <v>0</v>
+      </c>
+      <c r="V4" s="19">
+        <v>0</v>
+      </c>
+      <c r="W4" s="19">
+        <v>0</v>
+      </c>
+      <c r="X4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="19">
         <v>0</v>
       </c>
       <c r="AH4" s="3">
@@ -6741,16 +6791,16 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="31">
-        <v>2</v>
-      </c>
-      <c r="E5" s="31">
+      <c r="D5" s="29">
+        <v>2</v>
+      </c>
+      <c r="E5" s="29">
         <v>2</v>
       </c>
       <c r="F5" s="3">
@@ -6762,17 +6812,17 @@
       <c r="H5" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="21">
-        <v>0</v>
+      <c r="I5" s="3">
+        <v>2</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" s="3">
         <v>0</v>
@@ -6843,16 +6893,16 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="31">
-        <v>3</v>
-      </c>
-      <c r="E6" s="31">
+      <c r="D6" s="29">
+        <v>3</v>
+      </c>
+      <c r="E6" s="29">
         <v>3</v>
       </c>
       <c r="F6" s="3">
@@ -6861,7 +6911,7 @@
       <c r="G6" s="3">
         <v>3</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="19">
         <v>3</v>
       </c>
       <c r="I6" s="3">
@@ -6894,10 +6944,10 @@
       <c r="R6" s="3">
         <v>0</v>
       </c>
-      <c r="S6" s="36">
-        <v>3</v>
-      </c>
-      <c r="T6" s="36">
+      <c r="S6" s="34">
+        <v>3</v>
+      </c>
+      <c r="T6" s="34">
         <v>3</v>
       </c>
       <c r="U6" s="3">
@@ -6947,16 +6997,16 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="32">
-        <v>3</v>
-      </c>
-      <c r="E7" s="32">
+      <c r="D7" s="30">
+        <v>3</v>
+      </c>
+      <c r="E7" s="30">
         <v>3</v>
       </c>
       <c r="F7" s="3">
@@ -6965,7 +7015,7 @@
       <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="19">
         <v>3</v>
       </c>
       <c r="I7" s="3">
@@ -6984,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O7" s="3">
         <v>0</v>
@@ -6999,13 +7049,13 @@
         <v>0</v>
       </c>
       <c r="S7" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="36">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="U7" s="34">
+        <v>3</v>
       </c>
       <c r="V7" s="3">
         <v>0</v>
@@ -7049,12 +7099,12 @@
     </row>
     <row r="8" spans="1:34" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -7085,30 +7135,30 @@
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
     </row>
-    <row r="9" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="31">
-        <v>2</v>
-      </c>
-      <c r="E9" s="31">
+      <c r="D9" s="29">
+        <v>2</v>
+      </c>
+      <c r="E9" s="29">
         <v>2</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="3">
         <v>2</v>
@@ -7189,33 +7239,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="29">
         <v>0.5</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="29">
         <v>0.5</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J10" s="3">
         <v>0.5</v>
@@ -7293,33 +7343,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="31">
-        <v>1</v>
-      </c>
-      <c r="E11" s="31">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
+      <c r="D11" s="29">
+        <v>1</v>
+      </c>
+      <c r="E11" s="29">
+        <v>1</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1</v>
+      </c>
+      <c r="G11" s="29">
+        <v>1</v>
+      </c>
+      <c r="H11" s="29">
+        <v>1</v>
+      </c>
+      <c r="I11" s="29">
+        <v>1</v>
       </c>
       <c r="J11" s="3">
         <v>1</v>
@@ -7337,7 +7387,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="3">
         <v>0</v>
@@ -7397,20 +7447,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="31">
-        <v>3</v>
-      </c>
-      <c r="E12" s="31">
+      <c r="D12" s="29">
+        <v>3</v>
+      </c>
+      <c r="E12" s="29">
         <v>3</v>
       </c>
       <c r="F12" s="3">
@@ -7501,33 +7551,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="31">
-        <v>1</v>
-      </c>
-      <c r="E13" s="31">
+      <c r="D13" s="29">
+        <v>1</v>
+      </c>
+      <c r="E13" s="29">
         <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -7605,14 +7655,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="42" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -7643,45 +7693,45 @@
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
     </row>
-    <row r="15" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="31">
-        <v>2</v>
-      </c>
-      <c r="E15" s="31">
+      <c r="D15" s="29">
+        <v>2</v>
+      </c>
+      <c r="E15" s="29">
         <v>2</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" s="3">
         <v>2</v>
@@ -7747,45 +7797,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="31">
-        <v>1</v>
-      </c>
-      <c r="E16" s="31">
+      <c r="D16" s="29">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
         <v>1</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="3">
         <v>1</v>
@@ -7851,45 +7901,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="31">
-        <v>1</v>
-      </c>
-      <c r="E17" s="31">
+      <c r="D17" s="29">
+        <v>1</v>
+      </c>
+      <c r="E17" s="29">
         <v>1</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="3">
         <v>1</v>
@@ -7955,45 +8005,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="31">
-        <v>2</v>
-      </c>
-      <c r="E18" s="31">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
+      <c r="D18" s="29">
+        <v>2</v>
+      </c>
+      <c r="E18" s="29">
+        <v>2</v>
+      </c>
+      <c r="F18" s="29">
+        <v>2</v>
+      </c>
+      <c r="G18" s="29">
+        <v>2</v>
+      </c>
+      <c r="H18" s="29">
+        <v>2</v>
+      </c>
+      <c r="I18" s="29">
+        <v>2</v>
+      </c>
+      <c r="J18" s="29">
+        <v>2</v>
+      </c>
+      <c r="K18" s="29">
+        <v>2</v>
+      </c>
+      <c r="L18" s="29">
+        <v>2</v>
+      </c>
+      <c r="M18" s="29">
+        <v>2</v>
       </c>
       <c r="N18" s="3">
         <v>2</v>
@@ -8059,45 +8109,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="31">
-        <v>2</v>
-      </c>
-      <c r="E19" s="31">
+      <c r="D19" s="29">
+        <v>2</v>
+      </c>
+      <c r="E19" s="29">
         <v>2</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" s="3">
         <v>2</v>
@@ -8153,7 +8203,7 @@
       <c r="AE19" s="3">
         <v>0</v>
       </c>
-      <c r="AF19" s="22">
+      <c r="AF19" s="20">
         <v>0</v>
       </c>
       <c r="AG19" s="3">
@@ -8163,14 +8213,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="43" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -8201,51 +8251,51 @@
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
     </row>
-    <row r="21" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="32">
-        <v>3</v>
-      </c>
-      <c r="E21" s="32">
+      <c r="D21" s="30">
+        <v>3</v>
+      </c>
+      <c r="E21" s="30">
         <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P21" s="3">
         <v>3</v>
@@ -8305,20 +8355,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="14" t="s">
+      <c r="B22" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="29">
         <v>4.5</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="29">
         <v>4.5</v>
       </c>
       <c r="F22" s="3">
@@ -8334,22 +8384,22 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>3</v>
@@ -8375,7 +8425,7 @@
       <c r="W22" s="3">
         <v>3</v>
       </c>
-      <c r="X22" s="42">
+      <c r="X22" s="40">
         <v>0</v>
       </c>
       <c r="Y22" s="3">
@@ -8409,20 +8459,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="29">
         <v>1.5</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="29">
         <v>1.5</v>
       </c>
       <c r="F23" s="3">
@@ -8438,22 +8488,22 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P23" s="3">
         <v>1.5</v>
@@ -8513,20 +8563,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="29">
         <v>4</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="29">
         <v>4</v>
       </c>
       <c r="F24" s="3">
@@ -8542,25 +8592,25 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="3">
         <v>2</v>
@@ -8617,20 +8667,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="29">
         <v>1.5</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="29">
         <v>1.5</v>
       </c>
       <c r="F25" s="3">
@@ -8646,25 +8696,25 @@
         <v>0</v>
       </c>
       <c r="J25" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K25" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L25" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M25" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N25" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O25" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P25" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q25" s="3">
         <v>1.5</v>
@@ -8721,20 +8771,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="31">
-        <v>2</v>
-      </c>
-      <c r="E26" s="31">
+      <c r="D26" s="29">
+        <v>2</v>
+      </c>
+      <c r="E26" s="29">
         <v>2</v>
       </c>
       <c r="F26" s="3">
@@ -8750,25 +8800,25 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="3">
         <v>2</v>
@@ -8825,20 +8875,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="14" t="s">
+      <c r="B27" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="31">
-        <v>3</v>
-      </c>
-      <c r="E27" s="31">
+      <c r="D27" s="29">
+        <v>3</v>
+      </c>
+      <c r="E27" s="29">
         <v>3</v>
       </c>
       <c r="F27" s="3">
@@ -8854,25 +8904,25 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q27" s="3">
         <v>3</v>
@@ -8929,20 +8979,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>24</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="29">
         <v>4</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="29">
         <v>4</v>
       </c>
       <c r="F28" s="3">
@@ -8958,25 +9008,25 @@
         <v>0</v>
       </c>
       <c r="J28" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N28" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O28" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P28" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q28" s="3">
         <v>3</v>
@@ -9033,20 +9083,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>25</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="31">
-        <v>2</v>
-      </c>
-      <c r="E29" s="31">
+      <c r="D29" s="29">
+        <v>2</v>
+      </c>
+      <c r="E29" s="29">
         <v>2</v>
       </c>
       <c r="F29" s="3">
@@ -9062,25 +9112,25 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q29" s="3">
         <v>2</v>
@@ -9137,20 +9187,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>26</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="31">
-        <v>3</v>
-      </c>
-      <c r="E30" s="31">
+      <c r="D30" s="29">
+        <v>3</v>
+      </c>
+      <c r="E30" s="29">
         <v>3</v>
       </c>
       <c r="F30" s="3">
@@ -9166,25 +9216,25 @@
         <v>0</v>
       </c>
       <c r="J30" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K30" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N30" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O30" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P30" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q30" s="3">
         <v>3</v>
@@ -9241,14 +9291,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="44" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -9279,20 +9329,20 @@
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
     </row>
-    <row r="32" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>27</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="15" t="s">
+      <c r="B32" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="32">
+      <c r="D32" s="30">
+        <v>1</v>
+      </c>
+      <c r="E32" s="30">
         <v>1</v>
       </c>
       <c r="F32" s="3">
@@ -9314,19 +9364,19 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="3">
         <v>1</v>
@@ -9383,20 +9433,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>28</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="32">
-        <v>1</v>
-      </c>
-      <c r="E33" s="32">
+      <c r="D33" s="30">
+        <v>1</v>
+      </c>
+      <c r="E33" s="30">
         <v>1</v>
       </c>
       <c r="F33" s="3">
@@ -9418,19 +9468,19 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="3">
         <v>1</v>
@@ -9487,20 +9537,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>29</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="32">
-        <v>1</v>
-      </c>
-      <c r="E34" s="32">
+      <c r="D34" s="30">
+        <v>1</v>
+      </c>
+      <c r="E34" s="30">
         <v>1</v>
       </c>
       <c r="F34" s="3">
@@ -9522,19 +9572,19 @@
         <v>0</v>
       </c>
       <c r="L34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="3">
         <v>1</v>
@@ -9591,20 +9641,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>30</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="15" t="s">
+      <c r="B35" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="32">
-        <v>1</v>
-      </c>
-      <c r="E35" s="32">
+      <c r="D35" s="30">
+        <v>1</v>
+      </c>
+      <c r="E35" s="30">
         <v>1</v>
       </c>
       <c r="F35" s="3">
@@ -9626,19 +9676,19 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="3">
         <v>1</v>
@@ -9695,20 +9745,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>31</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="15" t="s">
+      <c r="B36" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="32">
-        <v>1</v>
-      </c>
-      <c r="E36" s="32">
+      <c r="D36" s="30">
+        <v>1</v>
+      </c>
+      <c r="E36" s="30">
         <v>1</v>
       </c>
       <c r="F36" s="3">
@@ -9799,14 +9849,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="19" t="s">
+    <row r="37" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -9837,602 +9887,602 @@
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
     </row>
-    <row r="38" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="13">
+    <row r="38" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
         <v>32</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="31">
-        <v>2</v>
-      </c>
-      <c r="E38" s="31">
-        <v>2</v>
-      </c>
-      <c r="F38" s="30">
-        <v>0</v>
-      </c>
-      <c r="G38" s="30">
-        <v>0</v>
-      </c>
-      <c r="H38" s="30">
-        <v>0</v>
-      </c>
-      <c r="I38" s="30">
-        <v>0</v>
-      </c>
-      <c r="J38" s="30">
-        <v>0</v>
-      </c>
-      <c r="K38" s="30">
-        <v>0</v>
-      </c>
-      <c r="L38" s="30">
-        <v>0</v>
-      </c>
-      <c r="M38" s="30">
-        <v>0</v>
-      </c>
-      <c r="N38" s="30">
-        <v>0</v>
-      </c>
-      <c r="O38" s="30">
-        <v>0</v>
-      </c>
-      <c r="P38" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="30">
-        <v>0</v>
-      </c>
-      <c r="R38" s="30">
-        <v>0</v>
-      </c>
-      <c r="S38" s="30">
-        <v>0</v>
-      </c>
-      <c r="T38" s="30">
-        <v>0</v>
-      </c>
-      <c r="U38" s="30">
-        <v>0</v>
-      </c>
-      <c r="V38" s="30">
-        <v>3</v>
-      </c>
-      <c r="W38" s="30">
-        <v>3</v>
-      </c>
-      <c r="X38" s="30">
-        <v>3</v>
-      </c>
-      <c r="Y38" s="30">
-        <v>3</v>
-      </c>
-      <c r="Z38" s="30">
-        <v>3</v>
-      </c>
-      <c r="AA38" s="30">
-        <v>3</v>
-      </c>
-      <c r="AB38" s="30">
-        <v>3</v>
-      </c>
-      <c r="AC38" s="30">
-        <v>1</v>
-      </c>
-      <c r="AD38" s="30">
-        <v>1</v>
-      </c>
-      <c r="AE38" s="30">
-        <v>1</v>
-      </c>
-      <c r="AF38" s="30">
-        <v>1</v>
-      </c>
-      <c r="AG38" s="30">
-        <v>1</v>
-      </c>
-      <c r="AH38" s="30">
+      <c r="D38" s="29">
+        <v>2</v>
+      </c>
+      <c r="E38" s="29">
+        <v>2</v>
+      </c>
+      <c r="F38" s="28">
+        <v>0</v>
+      </c>
+      <c r="G38" s="28">
+        <v>0</v>
+      </c>
+      <c r="H38" s="28">
+        <v>0</v>
+      </c>
+      <c r="I38" s="28">
+        <v>0</v>
+      </c>
+      <c r="J38" s="28">
+        <v>0</v>
+      </c>
+      <c r="K38" s="28">
+        <v>0</v>
+      </c>
+      <c r="L38" s="28">
+        <v>0</v>
+      </c>
+      <c r="M38" s="28">
+        <v>0</v>
+      </c>
+      <c r="N38" s="28">
+        <v>0</v>
+      </c>
+      <c r="O38" s="28">
+        <v>0</v>
+      </c>
+      <c r="P38" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="28">
+        <v>0</v>
+      </c>
+      <c r="R38" s="28">
+        <v>0</v>
+      </c>
+      <c r="S38" s="28">
+        <v>0</v>
+      </c>
+      <c r="T38" s="28">
+        <v>0</v>
+      </c>
+      <c r="U38" s="28">
+        <v>0</v>
+      </c>
+      <c r="V38" s="28">
+        <v>3</v>
+      </c>
+      <c r="W38" s="28">
+        <v>3</v>
+      </c>
+      <c r="X38" s="28">
+        <v>3</v>
+      </c>
+      <c r="Y38" s="28">
+        <v>3</v>
+      </c>
+      <c r="Z38" s="28">
+        <v>3</v>
+      </c>
+      <c r="AA38" s="28">
+        <v>3</v>
+      </c>
+      <c r="AB38" s="28">
+        <v>3</v>
+      </c>
+      <c r="AC38" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="28">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="28">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="28">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
+    <row r="39" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
         <v>33</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="31">
-        <v>3</v>
-      </c>
-      <c r="E39" s="31">
-        <v>3</v>
-      </c>
-      <c r="F39" s="30">
-        <v>0</v>
-      </c>
-      <c r="G39" s="30">
-        <v>0</v>
-      </c>
-      <c r="H39" s="30">
-        <v>0</v>
-      </c>
-      <c r="I39" s="30">
-        <v>0</v>
-      </c>
-      <c r="J39" s="30">
-        <v>0</v>
-      </c>
-      <c r="K39" s="30">
-        <v>0</v>
-      </c>
-      <c r="L39" s="30">
-        <v>0</v>
-      </c>
-      <c r="M39" s="30">
-        <v>0</v>
-      </c>
-      <c r="N39" s="30">
-        <v>0</v>
-      </c>
-      <c r="O39" s="30">
-        <v>0</v>
-      </c>
-      <c r="P39" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="30">
-        <v>0</v>
-      </c>
-      <c r="R39" s="30">
-        <v>0</v>
-      </c>
-      <c r="S39" s="30">
-        <v>0</v>
-      </c>
-      <c r="T39" s="30">
-        <v>0</v>
-      </c>
-      <c r="U39" s="30">
-        <v>0</v>
-      </c>
-      <c r="V39" s="30">
-        <v>3</v>
-      </c>
-      <c r="W39" s="30">
-        <v>3</v>
-      </c>
-      <c r="X39" s="30">
-        <v>3</v>
-      </c>
-      <c r="Y39" s="30">
-        <v>3</v>
-      </c>
-      <c r="Z39" s="30">
-        <v>3</v>
-      </c>
-      <c r="AA39" s="30">
-        <v>3</v>
-      </c>
-      <c r="AB39" s="30">
-        <v>3</v>
-      </c>
-      <c r="AC39" s="30">
-        <v>3</v>
-      </c>
-      <c r="AD39" s="30">
-        <v>3</v>
-      </c>
-      <c r="AE39" s="30">
-        <v>3</v>
-      </c>
-      <c r="AF39" s="30">
-        <v>3</v>
-      </c>
-      <c r="AG39" s="30">
-        <v>3</v>
-      </c>
-      <c r="AH39" s="30">
+      <c r="D39" s="29">
+        <v>3</v>
+      </c>
+      <c r="E39" s="29">
+        <v>3</v>
+      </c>
+      <c r="F39" s="28">
+        <v>0</v>
+      </c>
+      <c r="G39" s="28">
+        <v>0</v>
+      </c>
+      <c r="H39" s="28">
+        <v>0</v>
+      </c>
+      <c r="I39" s="28">
+        <v>0</v>
+      </c>
+      <c r="J39" s="28">
+        <v>0</v>
+      </c>
+      <c r="K39" s="28">
+        <v>0</v>
+      </c>
+      <c r="L39" s="28">
+        <v>0</v>
+      </c>
+      <c r="M39" s="28">
+        <v>0</v>
+      </c>
+      <c r="N39" s="28">
+        <v>0</v>
+      </c>
+      <c r="O39" s="28">
+        <v>0</v>
+      </c>
+      <c r="P39" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="28">
+        <v>0</v>
+      </c>
+      <c r="R39" s="28">
+        <v>0</v>
+      </c>
+      <c r="S39" s="28">
+        <v>0</v>
+      </c>
+      <c r="T39" s="28">
+        <v>0</v>
+      </c>
+      <c r="U39" s="28">
+        <v>0</v>
+      </c>
+      <c r="V39" s="28">
+        <v>3</v>
+      </c>
+      <c r="W39" s="28">
+        <v>3</v>
+      </c>
+      <c r="X39" s="28">
+        <v>3</v>
+      </c>
+      <c r="Y39" s="28">
+        <v>3</v>
+      </c>
+      <c r="Z39" s="28">
+        <v>3</v>
+      </c>
+      <c r="AA39" s="28">
+        <v>3</v>
+      </c>
+      <c r="AB39" s="28">
+        <v>3</v>
+      </c>
+      <c r="AC39" s="28">
+        <v>3</v>
+      </c>
+      <c r="AD39" s="28">
+        <v>3</v>
+      </c>
+      <c r="AE39" s="28">
+        <v>3</v>
+      </c>
+      <c r="AF39" s="28">
+        <v>3</v>
+      </c>
+      <c r="AG39" s="28">
+        <v>3</v>
+      </c>
+      <c r="AH39" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="13">
+    <row r="40" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
         <v>34</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="31">
-        <v>2</v>
-      </c>
-      <c r="E40" s="31">
-        <v>2</v>
-      </c>
-      <c r="F40" s="30">
-        <v>0</v>
-      </c>
-      <c r="G40" s="30">
-        <v>0</v>
-      </c>
-      <c r="H40" s="30">
-        <v>0</v>
-      </c>
-      <c r="I40" s="30">
-        <v>0</v>
-      </c>
-      <c r="J40" s="30">
-        <v>0</v>
-      </c>
-      <c r="K40" s="30">
-        <v>0</v>
-      </c>
-      <c r="L40" s="30">
-        <v>0</v>
-      </c>
-      <c r="M40" s="30">
-        <v>0</v>
-      </c>
-      <c r="N40" s="30">
-        <v>0</v>
-      </c>
-      <c r="O40" s="30">
-        <v>0</v>
-      </c>
-      <c r="P40" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="30">
-        <v>0</v>
-      </c>
-      <c r="R40" s="30">
-        <v>0</v>
-      </c>
-      <c r="S40" s="30">
-        <v>0</v>
-      </c>
-      <c r="T40" s="30">
-        <v>0</v>
-      </c>
-      <c r="U40" s="30">
-        <v>0</v>
-      </c>
-      <c r="V40" s="30">
-        <v>2</v>
-      </c>
-      <c r="W40" s="30">
-        <v>2</v>
-      </c>
-      <c r="X40" s="30">
-        <v>2</v>
-      </c>
-      <c r="Y40" s="30">
-        <v>2</v>
-      </c>
-      <c r="Z40" s="30">
-        <v>2</v>
-      </c>
-      <c r="AA40" s="30">
-        <v>2</v>
-      </c>
-      <c r="AB40" s="30">
-        <v>2</v>
-      </c>
-      <c r="AC40" s="30">
-        <v>2</v>
-      </c>
-      <c r="AD40" s="30">
-        <v>2</v>
-      </c>
-      <c r="AE40" s="30">
-        <v>2</v>
-      </c>
-      <c r="AF40" s="30">
-        <v>2</v>
-      </c>
-      <c r="AG40" s="30">
-        <v>2</v>
-      </c>
-      <c r="AH40" s="30">
+      <c r="D40" s="29">
+        <v>2</v>
+      </c>
+      <c r="E40" s="29">
+        <v>2</v>
+      </c>
+      <c r="F40" s="28">
+        <v>0</v>
+      </c>
+      <c r="G40" s="28">
+        <v>0</v>
+      </c>
+      <c r="H40" s="28">
+        <v>0</v>
+      </c>
+      <c r="I40" s="28">
+        <v>0</v>
+      </c>
+      <c r="J40" s="28">
+        <v>0</v>
+      </c>
+      <c r="K40" s="28">
+        <v>0</v>
+      </c>
+      <c r="L40" s="28">
+        <v>0</v>
+      </c>
+      <c r="M40" s="28">
+        <v>0</v>
+      </c>
+      <c r="N40" s="28">
+        <v>0</v>
+      </c>
+      <c r="O40" s="28">
+        <v>0</v>
+      </c>
+      <c r="P40" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="28">
+        <v>0</v>
+      </c>
+      <c r="R40" s="28">
+        <v>0</v>
+      </c>
+      <c r="S40" s="28">
+        <v>0</v>
+      </c>
+      <c r="T40" s="28">
+        <v>0</v>
+      </c>
+      <c r="U40" s="28">
+        <v>0</v>
+      </c>
+      <c r="V40" s="28">
+        <v>2</v>
+      </c>
+      <c r="W40" s="28">
+        <v>2</v>
+      </c>
+      <c r="X40" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y40" s="28">
+        <v>2</v>
+      </c>
+      <c r="Z40" s="28">
+        <v>2</v>
+      </c>
+      <c r="AA40" s="28">
+        <v>2</v>
+      </c>
+      <c r="AB40" s="28">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="28">
+        <v>2</v>
+      </c>
+      <c r="AD40" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE40" s="28">
+        <v>2</v>
+      </c>
+      <c r="AF40" s="28">
+        <v>2</v>
+      </c>
+      <c r="AG40" s="28">
+        <v>2</v>
+      </c>
+      <c r="AH40" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
+    <row r="41" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
         <v>35</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="31">
-        <v>1</v>
-      </c>
-      <c r="E41" s="31">
-        <v>2</v>
-      </c>
-      <c r="F41" s="30">
-        <v>1</v>
-      </c>
-      <c r="G41" s="30">
-        <v>2</v>
-      </c>
-      <c r="H41" s="30">
-        <v>2</v>
-      </c>
-      <c r="I41" s="30">
-        <v>2</v>
-      </c>
-      <c r="J41" s="30">
-        <v>2</v>
-      </c>
-      <c r="K41" s="30">
-        <v>2</v>
-      </c>
-      <c r="L41" s="30">
-        <v>2</v>
-      </c>
-      <c r="M41" s="30">
-        <v>2</v>
-      </c>
-      <c r="N41" s="30">
-        <v>2</v>
-      </c>
-      <c r="O41" s="30">
-        <v>2</v>
-      </c>
-      <c r="P41" s="30">
-        <v>2</v>
-      </c>
-      <c r="Q41" s="30">
-        <v>2</v>
-      </c>
-      <c r="R41" s="30">
-        <v>2</v>
-      </c>
-      <c r="S41" s="30">
-        <v>2</v>
-      </c>
-      <c r="T41" s="30">
-        <v>2</v>
-      </c>
-      <c r="U41" s="30">
-        <v>2</v>
-      </c>
-      <c r="V41" s="30">
-        <v>2</v>
-      </c>
-      <c r="W41" s="30">
-        <v>2</v>
-      </c>
-      <c r="X41" s="30">
-        <v>2</v>
-      </c>
-      <c r="Y41" s="30">
-        <v>2</v>
-      </c>
-      <c r="Z41" s="30">
-        <v>2</v>
-      </c>
-      <c r="AA41" s="30">
-        <v>2</v>
-      </c>
-      <c r="AB41" s="30">
-        <v>2</v>
-      </c>
-      <c r="AC41" s="30">
-        <v>2</v>
-      </c>
-      <c r="AD41" s="30">
-        <v>2</v>
-      </c>
-      <c r="AE41" s="30">
-        <v>2</v>
-      </c>
-      <c r="AF41" s="30">
-        <v>2</v>
-      </c>
-      <c r="AG41" s="30">
-        <v>2</v>
-      </c>
-      <c r="AH41" s="30">
+      <c r="D41" s="29">
+        <v>1</v>
+      </c>
+      <c r="E41" s="29">
+        <v>2</v>
+      </c>
+      <c r="F41" s="28">
+        <v>1</v>
+      </c>
+      <c r="G41" s="28">
+        <v>2</v>
+      </c>
+      <c r="H41" s="28">
+        <v>2</v>
+      </c>
+      <c r="I41" s="28">
+        <v>2</v>
+      </c>
+      <c r="J41" s="28">
+        <v>2</v>
+      </c>
+      <c r="K41" s="28">
+        <v>2</v>
+      </c>
+      <c r="L41" s="28">
+        <v>2</v>
+      </c>
+      <c r="M41" s="28">
+        <v>2</v>
+      </c>
+      <c r="N41" s="28">
+        <v>2</v>
+      </c>
+      <c r="O41" s="28">
+        <v>2</v>
+      </c>
+      <c r="P41" s="28">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="28">
+        <v>2</v>
+      </c>
+      <c r="R41" s="28">
+        <v>2</v>
+      </c>
+      <c r="S41" s="28">
+        <v>2</v>
+      </c>
+      <c r="T41" s="28">
+        <v>2</v>
+      </c>
+      <c r="U41" s="28">
+        <v>2</v>
+      </c>
+      <c r="V41" s="28">
+        <v>2</v>
+      </c>
+      <c r="W41" s="28">
+        <v>2</v>
+      </c>
+      <c r="X41" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y41" s="28">
+        <v>2</v>
+      </c>
+      <c r="Z41" s="28">
+        <v>2</v>
+      </c>
+      <c r="AA41" s="28">
+        <v>2</v>
+      </c>
+      <c r="AB41" s="28">
+        <v>2</v>
+      </c>
+      <c r="AC41" s="28">
+        <v>2</v>
+      </c>
+      <c r="AD41" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE41" s="28">
+        <v>2</v>
+      </c>
+      <c r="AF41" s="28">
+        <v>2</v>
+      </c>
+      <c r="AG41" s="28">
+        <v>2</v>
+      </c>
+      <c r="AH41" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="30"/>
-      <c r="Z42" s="30"/>
-      <c r="AA42" s="30"/>
-      <c r="AB42" s="30"/>
-      <c r="AC42" s="30"/>
-      <c r="AD42" s="30"/>
-      <c r="AE42" s="30"/>
-      <c r="AF42" s="37"/>
-      <c r="AG42" s="37"/>
-      <c r="AH42" s="37"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="28"/>
+      <c r="AE42" s="28"/>
+      <c r="AF42" s="35"/>
+      <c r="AG42" s="35"/>
+      <c r="AH42" s="35"/>
     </row>
     <row r="43" spans="1:34" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="41"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="39"/>
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="29">
-        <v>16.5</v>
-      </c>
-      <c r="G43" s="29">
-        <v>13</v>
-      </c>
-      <c r="H43" s="29">
-        <v>9.5</v>
-      </c>
-      <c r="I43" s="29">
-        <v>9.5</v>
-      </c>
-      <c r="J43" s="29">
-        <v>15</v>
-      </c>
-      <c r="K43" s="29">
-        <v>15</v>
-      </c>
-      <c r="L43" s="29">
-        <v>15</v>
-      </c>
-      <c r="M43" s="29">
-        <v>9</v>
-      </c>
-      <c r="N43" s="29">
-        <v>17</v>
-      </c>
-      <c r="O43" s="29">
-        <v>16</v>
-      </c>
-      <c r="P43" s="29">
-        <v>9.5</v>
-      </c>
-      <c r="Q43" s="29">
+      <c r="F43" s="27">
+        <v>32</v>
+      </c>
+      <c r="G43" s="27">
+        <v>28</v>
+      </c>
+      <c r="H43" s="27">
+        <v>28</v>
+      </c>
+      <c r="I43" s="27">
+        <v>28</v>
+      </c>
+      <c r="J43" s="27">
+        <v>52</v>
+      </c>
+      <c r="K43" s="27">
+        <v>52</v>
+      </c>
+      <c r="L43" s="27">
+        <v>52</v>
+      </c>
+      <c r="M43" s="27">
+        <v>41</v>
+      </c>
+      <c r="N43" s="27">
+        <v>47</v>
+      </c>
+      <c r="O43" s="27">
+        <v>41</v>
+      </c>
+      <c r="P43" s="27">
+        <v>34</v>
+      </c>
+      <c r="Q43" s="27">
         <v>38</v>
       </c>
-      <c r="R43" s="29">
+      <c r="R43" s="27">
         <v>31</v>
       </c>
-      <c r="S43" s="29">
+      <c r="S43" s="27">
         <v>30.5</v>
       </c>
-      <c r="T43" s="29">
+      <c r="T43" s="27">
         <v>30.5</v>
       </c>
-      <c r="U43" s="29">
+      <c r="U43" s="27">
         <v>30.5</v>
       </c>
-      <c r="V43" s="29">
+      <c r="V43" s="27">
         <v>33.5</v>
       </c>
-      <c r="W43" s="29">
+      <c r="W43" s="27">
         <v>33.5</v>
       </c>
-      <c r="X43" s="29">
+      <c r="X43" s="27">
         <v>12.5</v>
       </c>
-      <c r="Y43" s="29">
+      <c r="Y43" s="27">
         <v>10.5</v>
       </c>
-      <c r="Z43" s="29">
+      <c r="Z43" s="27">
         <v>11</v>
       </c>
-      <c r="AA43" s="29">
+      <c r="AA43" s="27">
         <v>11</v>
       </c>
-      <c r="AB43" s="29">
+      <c r="AB43" s="27">
         <v>11</v>
       </c>
-      <c r="AC43" s="29">
+      <c r="AC43" s="27">
         <v>11</v>
       </c>
-      <c r="AD43" s="29">
+      <c r="AD43" s="27">
         <v>11</v>
       </c>
-      <c r="AE43" s="29">
+      <c r="AE43" s="27">
         <v>11</v>
       </c>
-      <c r="AF43" s="29">
+      <c r="AF43" s="27">
         <v>6.5</v>
       </c>
-      <c r="AG43" s="29">
+      <c r="AG43" s="27">
         <v>5.5</v>
       </c>
-      <c r="AH43" s="29">
+      <c r="AH43" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="41"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="39"/>
       <c r="E44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="3">
         <f>SUM(F2:F41)</f>
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" ref="G44:AH44" si="0">SUM(G2:G41)</f>
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="J44" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="K44" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="L44" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="M44" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="P44" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>38.5</v>
       </c>
       <c r="Q44" s="3">
         <f t="shared" si="0"/>
@@ -10444,15 +10494,15 @@
       </c>
       <c r="S44" s="3">
         <f t="shared" si="0"/>
-        <v>34.5</v>
+        <v>37.5</v>
       </c>
       <c r="T44" s="3">
         <f t="shared" si="0"/>
-        <v>34.5</v>
+        <v>37.5</v>
       </c>
       <c r="U44" s="3">
         <f t="shared" si="0"/>
-        <v>33.5</v>
+        <v>34.5</v>
       </c>
       <c r="V44" s="3">
         <f t="shared" si="0"/>
@@ -10514,11 +10564,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Document/5.SpringBacklog/Sprint1_Backlog.xlsx
+++ b/Document/5.SpringBacklog/Sprint1_Backlog.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="57">
   <si>
     <t>No</t>
   </si>
@@ -40,15 +40,6 @@
   </si>
   <si>
     <t>Create Test Plan document for Sprint 1</t>
-  </si>
-  <si>
-    <t>Design user interface of Home page</t>
-  </si>
-  <si>
-    <t>Code back-end for Home page</t>
-  </si>
-  <si>
-    <t>Design Test Case for Homepage</t>
   </si>
   <si>
     <t>Design Test Case for Register</t>
@@ -93,16 +84,10 @@
     <t xml:space="preserve">Design user interface of Login </t>
   </si>
   <si>
-    <t>Design user interface of View Accommodation Information</t>
-  </si>
-  <si>
     <t xml:space="preserve">Design user interface of Booking Accommodation </t>
   </si>
   <si>
     <t>Test Design Interface</t>
-  </si>
-  <si>
-    <t>Test Design user interface of Home page</t>
   </si>
   <si>
     <t xml:space="preserve">Test Design user interface of Register Account </t>
@@ -111,16 +96,10 @@
     <t xml:space="preserve">Test Design user interface of Login </t>
   </si>
   <si>
-    <t xml:space="preserve">Test Design user interface of View Accommodation </t>
-  </si>
-  <si>
     <t>Test Design user interface of Booking Accommodation</t>
   </si>
   <si>
     <t>Coding</t>
-  </si>
-  <si>
-    <t>Code front-end for Home page</t>
   </si>
   <si>
     <t xml:space="preserve">Code front-end for Register Account </t>
@@ -135,28 +114,10 @@
     <t>Code back-end for Login</t>
   </si>
   <si>
-    <t xml:space="preserve">Code front-end View Accommodation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Back-end for View Accommodation </t>
-  </si>
-  <si>
-    <t>Code front-end Booking Accommodation</t>
-  </si>
-  <si>
-    <t>Code back-end Booking Accommodation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Testing </t>
   </si>
   <si>
     <t>Design Test Case for Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Test Case for View  Accommodation </t>
-  </si>
-  <si>
-    <t>Design Test Case for Booking Accommodation</t>
   </si>
   <si>
     <t xml:space="preserve"> Fix Bug &amp; Release</t>
@@ -174,9 +135,6 @@
     <t>Sprint Planning  Meeting</t>
   </si>
   <si>
-    <t>Thanh Van, Ha Lan</t>
-  </si>
-  <si>
     <t>Hoang Quoc</t>
   </si>
   <si>
@@ -184,9 +142,6 @@
   </si>
   <si>
     <t>Hoang Quoc, Quoc Nhat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoang Quoc </t>
   </si>
   <si>
     <t>Thanh Van</t>
@@ -239,6 +194,9 @@
   <si>
     <t>Design Test Case for Search</t>
   </si>
+  <si>
+    <t xml:space="preserve">Thanh Van </t>
+  </si>
 </sst>
 </file>
 
@@ -247,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -296,6 +254,18 @@
       <name val="arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00000A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="15">
@@ -384,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -477,12 +447,25 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -594,15 +577,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -2283,16 +2275,16 @@
   <dimension ref="A1:AML45"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="58" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" style="1" customWidth="1"/>
@@ -2329,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E1" s="23">
         <v>43349</v>
@@ -2435,10 +2427,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="12">
         <v>4</v>
@@ -2547,10 +2539,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="12">
         <v>0.5</v>
@@ -2659,10 +2651,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>32</v>
       </c>
       <c r="D4" s="12">
         <v>3</v>
@@ -2773,8 +2765,8 @@
       <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>46</v>
+      <c r="C5" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="D5" s="12">
         <v>2</v>
@@ -2868,10 +2860,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>34</v>
       </c>
       <c r="D6" s="12">
         <v>3</v>
@@ -2967,10 +2959,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="13">
         <v>3</v>
@@ -3065,9 +3057,9 @@
     <row r="8" spans="1:45 1026:1026" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C8" s="43"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -3104,12 +3096,12 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="12">
+        <v>43</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="41">
         <v>2</v>
       </c>
       <c r="E9" s="3">
@@ -3203,12 +3195,12 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="12">
+        <v>17</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="41">
         <v>0.5</v>
       </c>
       <c r="E10" s="3">
@@ -3302,12 +3294,12 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="12">
+        <v>18</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="41">
         <v>1</v>
       </c>
       <c r="E11" s="29">
@@ -3401,12 +3393,12 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="12">
+        <v>44</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="41">
         <v>3</v>
       </c>
       <c r="E12" s="3">
@@ -3500,12 +3492,12 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="12">
+        <v>19</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="41">
         <v>1</v>
       </c>
       <c r="E13" s="2">
@@ -3597,9 +3589,9 @@
     <row r="14" spans="1:45 1026:1026" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="C14" s="45"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -3636,12 +3628,12 @@
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="12">
+        <v>45</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="41">
         <v>2</v>
       </c>
       <c r="E15" s="3">
@@ -3735,12 +3727,12 @@
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="12">
+        <v>21</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="41">
         <v>1</v>
       </c>
       <c r="E16" s="3">
@@ -3834,12 +3826,12 @@
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="12">
+        <v>22</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="41">
         <v>1</v>
       </c>
       <c r="E17" s="3">
@@ -3933,12 +3925,12 @@
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="12">
+        <v>46</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="41">
         <v>2</v>
       </c>
       <c r="E18" s="29">
@@ -4032,12 +4024,12 @@
         <v>16</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="12">
+        <v>23</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="41">
         <v>2</v>
       </c>
       <c r="E19" s="3">
@@ -4132,9 +4124,9 @@
     <row r="20" spans="1:35 1026:1026" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="C20" s="45"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -4171,12 +4163,12 @@
         <v>17</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="13">
+        <v>47</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="42">
         <v>3</v>
       </c>
       <c r="E21" s="3">
@@ -4270,12 +4262,12 @@
         <v>18</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="12">
+        <v>48</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="41">
         <v>4.5</v>
       </c>
       <c r="E22" s="3">
@@ -4369,12 +4361,12 @@
         <v>19</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="12">
+        <v>25</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="41">
         <v>1.5</v>
       </c>
       <c r="E23" s="3">
@@ -4468,12 +4460,12 @@
         <v>20</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="12">
+        <v>26</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="41">
         <v>4</v>
       </c>
       <c r="E24" s="3">
@@ -4567,12 +4559,12 @@
         <v>21</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="12">
+        <v>27</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="41">
         <v>1.5</v>
       </c>
       <c r="E25" s="3">
@@ -4666,12 +4658,12 @@
         <v>22</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="12">
+        <v>28</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="41">
         <v>2</v>
       </c>
       <c r="E26" s="3">
@@ -4765,12 +4757,12 @@
         <v>23</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="12">
+        <v>49</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="41">
         <v>3</v>
       </c>
       <c r="E27" s="3">
@@ -4864,12 +4856,12 @@
         <v>24</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="12">
+        <v>50</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="41">
         <v>4</v>
       </c>
       <c r="E28" s="3">
@@ -4963,12 +4955,12 @@
         <v>25</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="12">
+        <v>51</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="41">
         <v>2</v>
       </c>
       <c r="E29" s="3">
@@ -5062,12 +5054,12 @@
         <v>26</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="12">
+        <v>52</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="41">
         <v>3</v>
       </c>
       <c r="E30" s="3">
@@ -5159,9 +5151,9 @@
     <row r="31" spans="1:35 1026:1026" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="45"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -5198,12 +5190,12 @@
         <v>27</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="13">
+        <v>53</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="42">
         <v>1</v>
       </c>
       <c r="E32" s="3">
@@ -5297,12 +5289,12 @@
         <v>28</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="13">
+        <v>5</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="42">
         <v>1</v>
       </c>
       <c r="E33" s="3">
@@ -5396,12 +5388,12 @@
         <v>29</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="13">
+        <v>30</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="42">
         <v>1</v>
       </c>
       <c r="E34" s="3">
@@ -5495,12 +5487,12 @@
         <v>30</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="13">
+        <v>54</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="42">
         <v>1</v>
       </c>
       <c r="E35" s="3">
@@ -5594,12 +5586,12 @@
         <v>31</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="13">
+        <v>55</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="42">
         <v>1</v>
       </c>
       <c r="E36" s="3">
@@ -5691,9 +5683,9 @@
     <row r="37" spans="1:32 1026:1026" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="C37" s="47"/>
       <c r="D37" s="18"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -5730,10 +5722,10 @@
         <v>32</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>7</v>
       </c>
       <c r="D38" s="12">
         <v>2</v>
@@ -5829,10 +5821,10 @@
         <v>33</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>7</v>
       </c>
       <c r="D39" s="12">
         <v>3</v>
@@ -5928,10 +5920,10 @@
         <v>34</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>7</v>
       </c>
       <c r="D40" s="12">
         <v>2</v>
@@ -6027,10 +6019,10 @@
         <v>35</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="12" t="s">
         <v>10</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>7</v>
       </c>
       <c r="D41" s="12">
         <v>1</v>
@@ -6124,7 +6116,7 @@
     <row r="42" spans="1:32 1026:1026" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="8"/>
       <c r="E42" s="27"/>
       <c r="F42" s="8"/>
@@ -6159,7 +6151,7 @@
     <row r="43" spans="1:32 1026:1026" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="8"/>
       <c r="E43" s="27">
         <f>SUM(E2:E41)</f>
@@ -6170,7 +6162,7 @@
         <v>28</v>
       </c>
       <c r="G43" s="27">
-        <f t="shared" ref="F43:AF43" si="0">SUM(G2:G41)</f>
+        <f t="shared" ref="G43:AF43" si="0">SUM(G2:G41)</f>
         <v>28</v>
       </c>
       <c r="H43" s="27">
@@ -6278,7 +6270,7 @@
     <row r="44" spans="1:32 1026:1026" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
+      <c r="C44" s="38"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -6311,7 +6303,6 @@
     <row r="45" spans="1:32 1026:1026" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -6356,16 +6347,16 @@
   <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="L68" sqref="L68"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5703125"/>
     <col min="2" max="2" width="65.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="1025" width="11.5703125"/>
@@ -6378,14 +6369,14 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7">
-        <v>3</v>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" s="23">
         <v>43349</v>
@@ -6480,10 +6471,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="29">
         <v>4</v>
@@ -6584,10 +6575,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="29">
         <v>0.5</v>
@@ -6688,10 +6679,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>32</v>
       </c>
       <c r="D4" s="29">
         <v>3</v>
@@ -6794,8 +6785,8 @@
       <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>46</v>
+      <c r="C5" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="D5" s="29">
         <v>2</v>
@@ -6889,15 +6880,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>34</v>
       </c>
       <c r="D6" s="29">
         <v>3</v>
@@ -6998,10 +6989,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="30">
         <v>3</v>
@@ -7100,9 +7091,9 @@
     <row r="8" spans="1:34" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C8" s="43"/>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" s="5"/>
@@ -7135,15 +7126,15 @@
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
     </row>
-    <row r="9" spans="1:34" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>49</v>
+      <c r="B9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="D9" s="29">
         <v>2</v>
@@ -7239,15 +7230,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>50</v>
+      <c r="B10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>36</v>
       </c>
       <c r="D10" s="29">
         <v>0.5</v>
@@ -7343,15 +7334,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>51</v>
+      <c r="B11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>37</v>
       </c>
       <c r="D11" s="29">
         <v>1</v>
@@ -7447,15 +7438,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>52</v>
+      <c r="B12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>38</v>
       </c>
       <c r="D12" s="29">
         <v>3</v>
@@ -7551,15 +7542,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>51</v>
+      <c r="B13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="D13" s="29">
         <v>1</v>
@@ -7655,12 +7646,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4"/>
+      <c r="B14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="45"/>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
       <c r="F14" s="5"/>
@@ -7693,15 +7684,15 @@
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
     </row>
-    <row r="15" spans="1:34" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>53</v>
+      <c r="B15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>56</v>
       </c>
       <c r="D15" s="29">
         <v>2</v>
@@ -7797,15 +7788,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>51</v>
+      <c r="B16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="D16" s="29">
         <v>1</v>
@@ -7901,15 +7892,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>46</v>
+      <c r="B17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="D17" s="29">
         <v>1</v>
@@ -8005,15 +7996,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>54</v>
+      <c r="B18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="D18" s="29">
         <v>2</v>
@@ -8109,15 +8100,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>45</v>
+      <c r="B19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>32</v>
       </c>
       <c r="D19" s="29">
         <v>2</v>
@@ -8213,12 +8204,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="4"/>
+      <c r="B20" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="45"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" s="5"/>
@@ -8251,15 +8242,15 @@
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
     </row>
-    <row r="21" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>46</v>
+      <c r="B21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>33</v>
       </c>
       <c r="D21" s="30">
         <v>3</v>
@@ -8355,15 +8346,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B22" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>46</v>
+      <c r="B22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="D22" s="29">
         <v>4.5</v>
@@ -8459,15 +8450,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>54</v>
+      <c r="B23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>37</v>
       </c>
       <c r="D23" s="29">
         <v>1.5</v>
@@ -8563,15 +8554,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>51</v>
+      <c r="B24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>37</v>
       </c>
       <c r="D24" s="29">
         <v>4</v>
@@ -8667,15 +8658,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B25" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>50</v>
+      <c r="B25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>37</v>
       </c>
       <c r="D25" s="29">
         <v>1.5</v>
@@ -8771,15 +8762,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="B26" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>50</v>
+      <c r="B26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>37</v>
       </c>
       <c r="D26" s="29">
         <v>2</v>
@@ -8875,15 +8866,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="B27" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>46</v>
+      <c r="B27" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="D27" s="29">
         <v>3</v>
@@ -8979,15 +8970,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>24</v>
       </c>
-      <c r="B28" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>51</v>
+      <c r="B28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="D28" s="29">
         <v>4</v>
@@ -9083,15 +9074,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>25</v>
       </c>
-      <c r="B29" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>50</v>
+      <c r="B29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="D29" s="29">
         <v>2</v>
@@ -9187,15 +9178,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>26</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>50</v>
+      <c r="B30" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="D30" s="29">
         <v>3</v>
@@ -9291,12 +9282,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="4"/>
+      <c r="B31" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="45"/>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
       <c r="F31" s="5"/>
@@ -9329,15 +9320,15 @@
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
     </row>
-    <row r="32" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>27</v>
       </c>
-      <c r="B32" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>45</v>
+      <c r="B32" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="D32" s="30">
         <v>1</v>
@@ -9433,15 +9424,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>28</v>
       </c>
-      <c r="B33" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>45</v>
+      <c r="B33" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="D33" s="30">
         <v>1</v>
@@ -9537,15 +9528,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>29</v>
       </c>
-      <c r="B34" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>50</v>
+      <c r="B34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>39</v>
       </c>
       <c r="D34" s="30">
         <v>1</v>
@@ -9641,15 +9632,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>30</v>
       </c>
-      <c r="B35" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>50</v>
+      <c r="B35" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="D35" s="30">
         <v>1</v>
@@ -9745,15 +9736,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>31</v>
       </c>
-      <c r="B36" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>54</v>
+      <c r="B36" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>39</v>
       </c>
       <c r="D36" s="30">
         <v>1</v>
@@ -9849,12 +9840,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="B37" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="18"/>
+      <c r="B37" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="47"/>
       <c r="D37" s="32"/>
       <c r="E37" s="32"/>
       <c r="F37" s="5"/>
@@ -9887,15 +9878,15 @@
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
     </row>
-    <row r="38" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>32</v>
       </c>
-      <c r="B38" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>10</v>
+      <c r="B38" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>7</v>
       </c>
       <c r="D38" s="29">
         <v>2</v>
@@ -9991,15 +9982,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>33</v>
       </c>
-      <c r="B39" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>10</v>
+      <c r="B39" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>7</v>
       </c>
       <c r="D39" s="29">
         <v>3</v>
@@ -10095,15 +10086,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>34</v>
       </c>
-      <c r="B40" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>10</v>
+      <c r="B40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>7</v>
       </c>
       <c r="D40" s="29">
         <v>2</v>
@@ -10199,15 +10190,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>35</v>
       </c>
-      <c r="B41" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="12" t="s">
+      <c r="B41" s="12" t="s">
         <v>10</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>7</v>
       </c>
       <c r="D41" s="29">
         <v>1</v>
@@ -10304,7 +10295,7 @@
       </c>
     </row>
     <row r="42" spans="1:34" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B42" s="36"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="36"/>
       <c r="D42" s="37"/>
       <c r="E42" s="29"/>
@@ -10343,7 +10334,7 @@
       <c r="C43" s="38"/>
       <c r="D43" s="39"/>
       <c r="E43" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F43" s="27">
         <v>32</v>
@@ -10438,7 +10429,7 @@
       <c r="C44" s="38"/>
       <c r="D44" s="39"/>
       <c r="E44" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F44" s="3">
         <f>SUM(F2:F41)</f>
@@ -10559,7 +10550,7 @@
     </row>
     <row r="87" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E87" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Document/5.SpringBacklog/Sprint1_Backlog.xlsx
+++ b/Document/5.SpringBacklog/Sprint1_Backlog.xlsx
@@ -827,9 +827,6 @@
                 <c:pt idx="27">
                   <c:v>43376</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>43377</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -922,9 +919,6 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,9 +1046,6 @@
                 <c:pt idx="27">
                   <c:v>43376</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>43377</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1147,9 +1138,6 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6347,9 +6335,9 @@
   <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6462,9 +6450,7 @@
       <c r="AG1" s="23">
         <v>43376</v>
       </c>
-      <c r="AH1" s="23">
-        <v>43377</v>
-      </c>
+      <c r="AH1" s="23"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
@@ -6566,9 +6552,7 @@
       <c r="AG2" s="3">
         <v>0</v>
       </c>
-      <c r="AH2" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -6670,9 +6654,7 @@
       <c r="AG3" s="3">
         <v>0.5</v>
       </c>
-      <c r="AH3" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH3" s="3"/>
     </row>
     <row r="4" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -6774,9 +6756,7 @@
       <c r="AG4" s="19">
         <v>0</v>
       </c>
-      <c r="AH4" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH4" s="3"/>
     </row>
     <row r="5" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -6876,9 +6856,7 @@
       <c r="AG5" s="3">
         <v>0</v>
       </c>
-      <c r="AH5" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH5" s="3"/>
     </row>
     <row r="6" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -6980,9 +6958,7 @@
       <c r="AG6" s="3">
         <v>0</v>
       </c>
-      <c r="AH6" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH6" s="3"/>
     </row>
     <row r="7" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -7084,9 +7060,7 @@
       <c r="AG7" s="3">
         <v>0</v>
       </c>
-      <c r="AH7" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH7" s="3"/>
     </row>
     <row r="8" spans="1:34" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -7226,9 +7200,7 @@
       <c r="AG9" s="3">
         <v>0</v>
       </c>
-      <c r="AH9" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH9" s="3"/>
     </row>
     <row r="10" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -7330,9 +7302,7 @@
       <c r="AG10" s="3">
         <v>0</v>
       </c>
-      <c r="AH10" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH10" s="3"/>
     </row>
     <row r="11" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -7434,9 +7404,7 @@
       <c r="AG11" s="3">
         <v>0</v>
       </c>
-      <c r="AH11" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH11" s="3"/>
     </row>
     <row r="12" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -7538,9 +7506,7 @@
       <c r="AG12" s="3">
         <v>0</v>
       </c>
-      <c r="AH12" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH12" s="3"/>
     </row>
     <row r="13" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -7642,9 +7608,7 @@
       <c r="AG13" s="3">
         <v>0</v>
       </c>
-      <c r="AH13" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH13" s="3"/>
     </row>
     <row r="14" spans="1:34" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -7784,9 +7748,7 @@
       <c r="AG15" s="3">
         <v>0</v>
       </c>
-      <c r="AH15" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH15" s="3"/>
     </row>
     <row r="16" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -7888,9 +7850,7 @@
       <c r="AG16" s="3">
         <v>0</v>
       </c>
-      <c r="AH16" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH16" s="3"/>
     </row>
     <row r="17" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -7992,9 +7952,7 @@
       <c r="AG17" s="3">
         <v>0</v>
       </c>
-      <c r="AH17" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH17" s="3"/>
     </row>
     <row r="18" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -8096,9 +8054,7 @@
       <c r="AG18" s="3">
         <v>0</v>
       </c>
-      <c r="AH18" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH18" s="3"/>
     </row>
     <row r="19" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
@@ -8200,9 +8156,7 @@
       <c r="AG19" s="3">
         <v>0</v>
       </c>
-      <c r="AH19" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH19" s="3"/>
     </row>
     <row r="20" spans="1:34" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -8342,9 +8296,7 @@
       <c r="AG21" s="3">
         <v>0</v>
       </c>
-      <c r="AH21" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH21" s="3"/>
     </row>
     <row r="22" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -8446,9 +8398,7 @@
       <c r="AG22" s="3">
         <v>0</v>
       </c>
-      <c r="AH22" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH22" s="3"/>
     </row>
     <row r="23" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -8550,9 +8500,7 @@
       <c r="AG23" s="3">
         <v>0</v>
       </c>
-      <c r="AH23" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH23" s="3"/>
     </row>
     <row r="24" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -8654,9 +8602,7 @@
       <c r="AG24" s="3">
         <v>0</v>
       </c>
-      <c r="AH24" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH24" s="3"/>
     </row>
     <row r="25" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -8758,9 +8704,7 @@
       <c r="AG25" s="3">
         <v>0</v>
       </c>
-      <c r="AH25" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH25" s="3"/>
     </row>
     <row r="26" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -8862,9 +8806,7 @@
       <c r="AG26" s="3">
         <v>0</v>
       </c>
-      <c r="AH26" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH26" s="3"/>
     </row>
     <row r="27" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
@@ -8966,9 +8908,7 @@
       <c r="AG27" s="3">
         <v>0</v>
       </c>
-      <c r="AH27" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH27" s="3"/>
     </row>
     <row r="28" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
@@ -9070,9 +9010,7 @@
       <c r="AG28" s="3">
         <v>0</v>
       </c>
-      <c r="AH28" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH28" s="3"/>
     </row>
     <row r="29" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
@@ -9174,9 +9112,7 @@
       <c r="AG29" s="3">
         <v>0</v>
       </c>
-      <c r="AH29" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH29" s="3"/>
     </row>
     <row r="30" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -9278,9 +9214,7 @@
       <c r="AG30" s="3">
         <v>0</v>
       </c>
-      <c r="AH30" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH30" s="3"/>
     </row>
     <row r="31" spans="1:34" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
@@ -9420,9 +9354,7 @@
       <c r="AG32" s="3">
         <v>0</v>
       </c>
-      <c r="AH32" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH32" s="3"/>
     </row>
     <row r="33" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
@@ -9524,9 +9456,7 @@
       <c r="AG33" s="3">
         <v>0</v>
       </c>
-      <c r="AH33" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH33" s="3"/>
     </row>
     <row r="34" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
@@ -9628,9 +9558,7 @@
       <c r="AG34" s="3">
         <v>0</v>
       </c>
-      <c r="AH34" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH34" s="3"/>
     </row>
     <row r="35" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
@@ -9732,9 +9660,7 @@
       <c r="AG35" s="3">
         <v>0</v>
       </c>
-      <c r="AH35" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH35" s="3"/>
     </row>
     <row r="36" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
@@ -9836,9 +9762,7 @@
       <c r="AG36" s="3">
         <v>0</v>
       </c>
-      <c r="AH36" s="3">
-        <v>0</v>
-      </c>
+      <c r="AH36" s="3"/>
     </row>
     <row r="37" spans="1:34" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
@@ -9978,9 +9902,7 @@
       <c r="AG38" s="28">
         <v>1</v>
       </c>
-      <c r="AH38" s="28">
-        <v>0</v>
-      </c>
+      <c r="AH38" s="28"/>
     </row>
     <row r="39" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
@@ -10082,9 +10004,7 @@
       <c r="AG39" s="28">
         <v>3</v>
       </c>
-      <c r="AH39" s="28">
-        <v>0</v>
-      </c>
+      <c r="AH39" s="28"/>
     </row>
     <row r="40" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
@@ -10186,9 +10106,7 @@
       <c r="AG40" s="28">
         <v>2</v>
       </c>
-      <c r="AH40" s="28">
-        <v>0</v>
-      </c>
+      <c r="AH40" s="28"/>
     </row>
     <row r="41" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
@@ -10290,9 +10208,7 @@
       <c r="AG41" s="28">
         <v>2</v>
       </c>
-      <c r="AH41" s="28">
-        <v>0</v>
-      </c>
+      <c r="AH41" s="28"/>
     </row>
     <row r="42" spans="1:34" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B42" s="48"/>
@@ -10420,9 +10336,7 @@
       <c r="AG43" s="27">
         <v>5.5</v>
       </c>
-      <c r="AH43" s="27">
-        <v>0</v>
-      </c>
+      <c r="AH43" s="27"/>
     </row>
     <row r="44" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B44" s="38"/>
@@ -10543,10 +10457,7 @@
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-      <c r="AH44" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AH44" s="3"/>
     </row>
     <row r="87" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E87" t="s">
